--- a/Realme/NOVEMBER/All Details/20.11.2021/realme Bank Statement November 2021.xlsx
+++ b/Realme/NOVEMBER/All Details/20.11.2021/realme Bank Statement November 2021.xlsx
@@ -215,9 +215,6 @@
     <t>Elect Bill</t>
   </si>
   <si>
-    <t>Kurier Cost</t>
-  </si>
-  <si>
     <t>Etc</t>
   </si>
   <si>
@@ -384,6 +381,9 @@
   </si>
   <si>
     <t>Date: 20.11.2021</t>
+  </si>
+  <si>
+    <t>Memo Make</t>
   </si>
 </sst>
 </file>
@@ -2413,12 +2413,45 @@
     <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="38" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="38" fillId="35" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="35" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2429,39 +2462,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="38" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="38" fillId="35" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="35" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="38" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3081,8 +3081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3110,7 +3110,7 @@
     <row r="2" spans="1:11" ht="16.5" customHeight="1">
       <c r="A2" s="15"/>
       <c r="B2" s="248" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="248"/>
       <c r="D2" s="248"/>
@@ -3144,7 +3144,7 @@
     <row r="5" spans="1:11">
       <c r="A5" s="15"/>
       <c r="B5" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="19">
         <v>1065650</v>
@@ -3178,7 +3178,7 @@
     <row r="7" spans="1:11">
       <c r="A7" s="15"/>
       <c r="B7" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="19">
         <v>750000</v>
@@ -3200,7 +3200,7 @@
     <row r="8" spans="1:11">
       <c r="A8" s="15"/>
       <c r="B8" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="19">
         <v>250000</v>
@@ -3222,7 +3222,7 @@
     <row r="9" spans="1:11">
       <c r="A9" s="15"/>
       <c r="B9" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="22">
         <v>540000</v>
@@ -3244,7 +3244,7 @@
     <row r="10" spans="1:11">
       <c r="A10" s="15"/>
       <c r="B10" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" s="19">
         <v>580000</v>
@@ -3266,7 +3266,7 @@
     <row r="11" spans="1:11">
       <c r="A11" s="15"/>
       <c r="B11" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" s="19">
         <v>600000</v>
@@ -3288,7 +3288,7 @@
     <row r="12" spans="1:11">
       <c r="A12" s="15"/>
       <c r="B12" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="19">
         <v>0</v>
@@ -3310,7 +3310,7 @@
     <row r="13" spans="1:11">
       <c r="A13" s="15"/>
       <c r="B13" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" s="19">
         <v>850000</v>
@@ -3332,7 +3332,7 @@
     <row r="14" spans="1:11">
       <c r="A14" s="15"/>
       <c r="B14" s="180" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" s="181">
         <v>850000</v>
@@ -3354,7 +3354,7 @@
     <row r="15" spans="1:11">
       <c r="A15" s="15"/>
       <c r="B15" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="19">
         <v>450000</v>
@@ -3376,7 +3376,7 @@
     <row r="16" spans="1:11">
       <c r="A16" s="15"/>
       <c r="B16" s="182" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="183">
         <v>200000</v>
@@ -3398,7 +3398,7 @@
     <row r="17" spans="1:11">
       <c r="A17" s="15"/>
       <c r="B17" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" s="19">
         <v>450000</v>
@@ -3420,7 +3420,7 @@
     <row r="18" spans="1:11" ht="12.75" customHeight="1">
       <c r="A18" s="15"/>
       <c r="B18" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" s="19">
         <v>120000</v>
@@ -3442,7 +3442,7 @@
     <row r="19" spans="1:11">
       <c r="A19" s="15"/>
       <c r="B19" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" s="19">
         <v>2000000</v>
@@ -3464,7 +3464,7 @@
     <row r="20" spans="1:11">
       <c r="A20" s="15"/>
       <c r="B20" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" s="19">
         <v>0</v>
@@ -3486,7 +3486,7 @@
     <row r="21" spans="1:11">
       <c r="A21" s="15"/>
       <c r="B21" s="180" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" s="181">
         <v>0</v>
@@ -3508,7 +3508,7 @@
     <row r="22" spans="1:11">
       <c r="A22" s="15"/>
       <c r="B22" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" s="19">
         <v>0</v>
@@ -3530,7 +3530,7 @@
     <row r="23" spans="1:11">
       <c r="A23" s="15"/>
       <c r="B23" s="182" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C23" s="183">
         <v>0</v>
@@ -3552,7 +3552,7 @@
     <row r="24" spans="1:11">
       <c r="A24" s="15"/>
       <c r="B24" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" s="19">
         <v>0</v>
@@ -3574,7 +3574,7 @@
     <row r="25" spans="1:11">
       <c r="A25" s="15"/>
       <c r="B25" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C25" s="19">
         <v>400000</v>
@@ -3596,7 +3596,7 @@
     <row r="26" spans="1:11">
       <c r="A26" s="15"/>
       <c r="B26" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C26" s="19">
         <v>0</v>
@@ -4004,7 +4004,7 @@
   <dimension ref="A1:X320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
@@ -4017,67 +4017,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="255" t="s">
+      <c r="A1" s="249" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="255"/>
-      <c r="C1" s="255"/>
-      <c r="D1" s="255"/>
-      <c r="E1" s="255"/>
-      <c r="F1" s="255"/>
-      <c r="G1" s="255"/>
-      <c r="H1" s="255"/>
-      <c r="I1" s="255"/>
-      <c r="J1" s="255"/>
-      <c r="K1" s="255"/>
-      <c r="L1" s="255"/>
-      <c r="M1" s="255"/>
-      <c r="N1" s="255"/>
-      <c r="O1" s="255"/>
-      <c r="P1" s="255"/>
-      <c r="Q1" s="255"/>
+      <c r="B1" s="249"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
+      <c r="E1" s="249"/>
+      <c r="F1" s="249"/>
+      <c r="G1" s="249"/>
+      <c r="H1" s="249"/>
+      <c r="I1" s="249"/>
+      <c r="J1" s="249"/>
+      <c r="K1" s="249"/>
+      <c r="L1" s="249"/>
+      <c r="M1" s="249"/>
+      <c r="N1" s="249"/>
+      <c r="O1" s="249"/>
+      <c r="P1" s="249"/>
+      <c r="Q1" s="249"/>
     </row>
     <row r="2" spans="1:24" s="105" customFormat="1" ht="18">
-      <c r="A2" s="256" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
-      <c r="H2" s="256"/>
-      <c r="I2" s="256"/>
-      <c r="J2" s="256"/>
-      <c r="K2" s="256"/>
-      <c r="L2" s="256"/>
-      <c r="M2" s="256"/>
-      <c r="N2" s="256"/>
-      <c r="O2" s="256"/>
-      <c r="P2" s="256"/>
-      <c r="Q2" s="256"/>
+      <c r="A2" s="250" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="250"/>
+      <c r="C2" s="250"/>
+      <c r="D2" s="250"/>
+      <c r="E2" s="250"/>
+      <c r="F2" s="250"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="250"/>
+      <c r="I2" s="250"/>
+      <c r="J2" s="250"/>
+      <c r="K2" s="250"/>
+      <c r="L2" s="250"/>
+      <c r="M2" s="250"/>
+      <c r="N2" s="250"/>
+      <c r="O2" s="250"/>
+      <c r="P2" s="250"/>
+      <c r="Q2" s="250"/>
     </row>
     <row r="3" spans="1:24" s="106" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="257" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="258"/>
-      <c r="C3" s="258"/>
-      <c r="D3" s="258"/>
-      <c r="E3" s="258"/>
-      <c r="F3" s="258"/>
-      <c r="G3" s="258"/>
-      <c r="H3" s="258"/>
-      <c r="I3" s="258"/>
-      <c r="J3" s="258"/>
-      <c r="K3" s="258"/>
-      <c r="L3" s="258"/>
-      <c r="M3" s="258"/>
-      <c r="N3" s="258"/>
-      <c r="O3" s="258"/>
-      <c r="P3" s="258"/>
-      <c r="Q3" s="259"/>
+      <c r="A3" s="251" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="252"/>
+      <c r="C3" s="252"/>
+      <c r="D3" s="252"/>
+      <c r="E3" s="252"/>
+      <c r="F3" s="252"/>
+      <c r="G3" s="252"/>
+      <c r="H3" s="252"/>
+      <c r="I3" s="252"/>
+      <c r="J3" s="252"/>
+      <c r="K3" s="252"/>
+      <c r="L3" s="252"/>
+      <c r="M3" s="252"/>
+      <c r="N3" s="252"/>
+      <c r="O3" s="252"/>
+      <c r="P3" s="252"/>
+      <c r="Q3" s="253"/>
       <c r="S3" s="49"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4086,53 +4086,53 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="108" customFormat="1">
-      <c r="A4" s="260" t="s">
+      <c r="A4" s="254" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="262" t="s">
+      <c r="B4" s="256" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="249" t="s">
+      <c r="C4" s="258" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="249" t="s">
+      <c r="D4" s="258" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="249" t="s">
+      <c r="E4" s="258" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="249" t="s">
+      <c r="F4" s="258" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="249" t="s">
+      <c r="G4" s="258" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="249" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="249" t="s">
+      <c r="H4" s="258" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="258" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="249" t="s">
+      <c r="J4" s="258" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="249" t="s">
+      <c r="K4" s="258" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="249" t="s">
+      <c r="L4" s="258" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="249" t="s">
+      <c r="M4" s="258" t="s">
+        <v>94</v>
+      </c>
+      <c r="N4" s="264" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" s="262" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="260" t="s">
         <v>38</v>
-      </c>
-      <c r="N4" s="253" t="s">
-        <v>59</v>
-      </c>
-      <c r="O4" s="251" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="264" t="s">
-        <v>39</v>
       </c>
       <c r="Q4" s="107" t="s">
         <v>3</v>
@@ -4144,24 +4144,24 @@
       <c r="W4" s="110"/>
     </row>
     <row r="5" spans="1:24" s="108" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="261"/>
-      <c r="B5" s="263"/>
-      <c r="C5" s="250"/>
-      <c r="D5" s="250"/>
-      <c r="E5" s="250"/>
-      <c r="F5" s="250"/>
-      <c r="G5" s="250"/>
-      <c r="H5" s="250"/>
-      <c r="I5" s="250"/>
-      <c r="J5" s="250"/>
-      <c r="K5" s="250"/>
-      <c r="L5" s="250"/>
-      <c r="M5" s="250"/>
-      <c r="N5" s="254"/>
-      <c r="O5" s="252"/>
-      <c r="P5" s="265"/>
+      <c r="A5" s="255"/>
+      <c r="B5" s="257"/>
+      <c r="C5" s="259"/>
+      <c r="D5" s="259"/>
+      <c r="E5" s="259"/>
+      <c r="F5" s="259"/>
+      <c r="G5" s="259"/>
+      <c r="H5" s="259"/>
+      <c r="I5" s="259"/>
+      <c r="J5" s="259"/>
+      <c r="K5" s="259"/>
+      <c r="L5" s="259"/>
+      <c r="M5" s="259"/>
+      <c r="N5" s="265"/>
+      <c r="O5" s="263"/>
+      <c r="P5" s="261"/>
       <c r="Q5" s="112" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S5" s="113"/>
       <c r="T5" s="114"/>
@@ -4172,7 +4172,7 @@
     </row>
     <row r="6" spans="1:24" s="9" customFormat="1">
       <c r="A6" s="116" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="117">
         <v>500</v>
@@ -4208,7 +4208,7 @@
     </row>
     <row r="7" spans="1:24" s="9" customFormat="1">
       <c r="A7" s="116" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="117">
         <v>150</v>
@@ -4244,7 +4244,7 @@
     </row>
     <row r="8" spans="1:24" s="9" customFormat="1">
       <c r="A8" s="116" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="124"/>
       <c r="C8" s="117"/>
@@ -4277,14 +4277,14 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V8" s="26"/>
       <c r="W8" s="3"/>
     </row>
     <row r="9" spans="1:24" s="9" customFormat="1">
       <c r="A9" s="116" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="124">
         <v>500</v>
@@ -4322,7 +4322,7 @@
     </row>
     <row r="10" spans="1:24" s="9" customFormat="1">
       <c r="A10" s="116" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" s="124"/>
       <c r="C10" s="117"/>
@@ -4358,7 +4358,7 @@
     </row>
     <row r="11" spans="1:24" s="9" customFormat="1">
       <c r="A11" s="116" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="124">
         <v>200</v>
@@ -4398,7 +4398,7 @@
     </row>
     <row r="12" spans="1:24" s="9" customFormat="1">
       <c r="A12" s="116" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" s="124">
         <v>500</v>
@@ -4440,7 +4440,7 @@
     </row>
     <row r="13" spans="1:24" s="9" customFormat="1">
       <c r="A13" s="116" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B13" s="124">
         <v>400</v>
@@ -4478,7 +4478,7 @@
     </row>
     <row r="14" spans="1:24" s="9" customFormat="1">
       <c r="A14" s="116" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" s="124"/>
       <c r="C14" s="117"/>
@@ -4514,7 +4514,7 @@
     </row>
     <row r="15" spans="1:24" s="9" customFormat="1">
       <c r="A15" s="116" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" s="124"/>
       <c r="C15" s="117"/>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="16" spans="1:24" s="9" customFormat="1">
       <c r="A16" s="116" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" s="124">
         <v>500</v>
@@ -4588,7 +4588,7 @@
     </row>
     <row r="17" spans="1:23" s="9" customFormat="1">
       <c r="A17" s="116" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" s="124"/>
       <c r="C17" s="117"/>
@@ -4624,7 +4624,7 @@
     </row>
     <row r="18" spans="1:23" s="9" customFormat="1">
       <c r="A18" s="116" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B18" s="124">
         <v>200</v>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="19" spans="1:23" s="9" customFormat="1">
       <c r="A19" s="116" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B19" s="124">
         <v>500</v>
@@ -4700,7 +4700,7 @@
     </row>
     <row r="20" spans="1:23" s="9" customFormat="1">
       <c r="A20" s="116" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B20" s="124"/>
       <c r="C20" s="117"/>
@@ -4736,7 +4736,7 @@
     </row>
     <row r="21" spans="1:23" s="9" customFormat="1">
       <c r="A21" s="116" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B21" s="124"/>
       <c r="C21" s="117">
@@ -4770,7 +4770,7 @@
     </row>
     <row r="22" spans="1:23" s="9" customFormat="1">
       <c r="A22" s="116" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B22" s="124">
         <v>500</v>
@@ -4791,13 +4791,15 @@
       </c>
       <c r="K22" s="125"/>
       <c r="L22" s="125"/>
-      <c r="M22" s="155"/>
+      <c r="M22" s="155">
+        <v>13000</v>
+      </c>
       <c r="N22" s="125"/>
       <c r="O22" s="125"/>
       <c r="P22" s="127"/>
       <c r="Q22" s="121">
         <f t="shared" si="0"/>
-        <v>840</v>
+        <v>13840</v>
       </c>
       <c r="R22" s="122"/>
       <c r="S22" s="4"/>
@@ -5143,7 +5145,7 @@
     </row>
     <row r="37" spans="1:18" s="105" customFormat="1" ht="13.5" thickBot="1">
       <c r="A37" s="141" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="142">
         <f>SUM(B6:B36)</f>
@@ -5191,7 +5193,7 @@
       </c>
       <c r="M37" s="158">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="N37" s="143">
         <f t="shared" si="1"/>
@@ -5207,7 +5209,7 @@
       </c>
       <c r="Q37" s="145">
         <f>SUM(Q6:Q36)</f>
-        <v>13910</v>
+        <v>26910</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -7209,6 +7211,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -7225,9 +7230,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7327,7 +7329,7 @@
     </row>
     <row r="2" spans="1:61" ht="15">
       <c r="A2" s="273" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="273"/>
       <c r="C2" s="273"/>
@@ -7387,7 +7389,7 @@
     </row>
     <row r="3" spans="1:61" ht="13.5" thickBot="1">
       <c r="A3" s="274" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="274"/>
       <c r="C3" s="274"/>
@@ -9647,16 +9649,16 @@
       <c r="F36" s="215"/>
       <c r="G36" s="61"/>
       <c r="H36" s="243" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I36" s="244" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J36" s="245">
         <v>38960</v>
       </c>
       <c r="K36" s="246" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L36" s="39"/>
       <c r="M36" s="160"/>
@@ -9718,16 +9720,16 @@
       <c r="F37" s="40"/>
       <c r="G37" s="61"/>
       <c r="H37" s="243" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I37" s="244" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J37" s="245">
         <v>8270</v>
       </c>
       <c r="K37" s="246" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L37" s="39"/>
       <c r="M37" s="160"/>
@@ -9789,7 +9791,7 @@
       <c r="F38" s="44"/>
       <c r="G38" s="61"/>
       <c r="H38" s="243" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I38" s="244"/>
       <c r="J38" s="245">
@@ -10289,16 +10291,16 @@
     </row>
     <row r="46" spans="1:61">
       <c r="A46" s="86" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C46" s="202">
         <v>180560</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E46" s="48"/>
       <c r="F46" s="164"/>
@@ -10359,14 +10361,14 @@
     </row>
     <row r="47" spans="1:61">
       <c r="A47" s="228" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B47" s="40"/>
       <c r="C47" s="202">
         <v>26000</v>
       </c>
       <c r="D47" s="44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E47" s="48"/>
       <c r="F47" s="164"/>
@@ -10427,16 +10429,16 @@
     </row>
     <row r="48" spans="1:61">
       <c r="A48" s="229" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B48" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="202">
         <v>1500</v>
       </c>
       <c r="D48" s="44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E48" s="48"/>
       <c r="F48" s="161"/>
@@ -11323,7 +11325,7 @@
       <c r="D62" s="82"/>
       <c r="E62" s="54"/>
       <c r="F62" s="266" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G62" s="266"/>
       <c r="H62" s="159"/>
@@ -15946,8 +15948,8 @@
   </sheetPr>
   <dimension ref="A1:AC225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -15968,7 +15970,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="26.25">
       <c r="A1" s="284" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="285"/>
       <c r="C1" s="285"/>
@@ -15979,7 +15981,7 @@
     </row>
     <row r="2" spans="1:29" ht="21.75">
       <c r="A2" s="293" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="294"/>
       <c r="C2" s="294"/>
@@ -15990,7 +15992,7 @@
     </row>
     <row r="3" spans="1:29" ht="24" thickBot="1">
       <c r="A3" s="287" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="288"/>
       <c r="C3" s="288"/>
@@ -16023,7 +16025,7 @@
     </row>
     <row r="4" spans="1:29" ht="24" thickBot="1">
       <c r="A4" s="296" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="297"/>
       <c r="C4" s="297"/>
@@ -16058,7 +16060,7 @@
     </row>
     <row r="5" spans="1:29" ht="21.75">
       <c r="A5" s="195" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="232">
         <v>6000000</v>
@@ -16101,7 +16103,7 @@
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="176" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" s="187">
         <v>105230</v>
@@ -16136,7 +16138,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="231">
-        <v>764070</v>
+        <v>751070</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="29"/>
@@ -16199,7 +16201,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="186">
-        <v>13910</v>
+        <v>26910</v>
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="176"/>
@@ -16274,11 +16276,11 @@
       </c>
       <c r="B11" s="233">
         <f>B6-B10-B9+B7</f>
-        <v>152840</v>
+        <v>139840</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="176" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" s="187">
         <v>16550</v>
@@ -16313,18 +16315,18 @@
       <c r="B12" s="234"/>
       <c r="C12" s="33"/>
       <c r="D12" s="176" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="231">
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="173"/>
       <c r="I12" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -16349,7 +16351,7 @@
     </row>
     <row r="13" spans="1:29" ht="21.75">
       <c r="A13" s="241" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B13" s="242">
         <v>1000000</v>
@@ -16361,7 +16363,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="173"/>
       <c r="I13" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>11</v>
@@ -16455,7 +16457,7 @@
       </c>
       <c r="B16" s="186">
         <f>B5+B6-B9+B13+B15</f>
-        <v>7152840</v>
+        <v>7139840</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="176" t="s">
@@ -16463,7 +16465,7 @@
       </c>
       <c r="E16" s="187">
         <f>E5+E6+E7+E10+E11+E12</f>
-        <v>7152840</v>
+        <v>7139840</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="153">
@@ -16560,14 +16562,14 @@
     </row>
     <row r="19" spans="1:29" ht="22.5" thickBot="1">
       <c r="A19" s="238" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B19" s="189">
         <v>180560</v>
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="238" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E19" s="189">
         <v>26000</v>
